--- a/Week_13/appdg2/template_dataset.xlsx
+++ b/Week_13/appdg2/template_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\git_v3\HealthCare_project\Week_13\appdg2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3EF9B9F-0DE7-4357-AF7E-4BB6EBD70FD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4813790A-1352-486C-8547-FFB613AFCF42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10608" yWindow="2400" windowWidth="13860" windowHeight="8748" xr2:uid="{1604963C-24BB-4587-B425-F02303289D06}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1604963C-24BB-4587-B425-F02303289D06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>Region</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Frag_Frac_During_Rx</t>
   </si>
   <si>
-    <t>Change_Risk_Segment</t>
-  </si>
-  <si>
     <t>Adherent_Flag</t>
   </si>
   <si>
@@ -153,34 +150,16 @@
     <t>GENERAL PRACTITIONER</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>OB/GYN/Others/PCP/Unknown</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>VLR_LR</t>
-  </si>
-  <si>
-    <t>&gt;-2.5</t>
-  </si>
-  <si>
-    <t>&lt;=-2.5</t>
-  </si>
-  <si>
-    <t>No change</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Adherent</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Risk_Smoking_Tobacco</t>
   </si>
 </sst>
 </file>
@@ -547,18 +526,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D8C604-34EE-4C63-80B5-B10FD89684E1}">
-  <dimension ref="A1:AT2"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AN2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="46" max="46" width="17.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,137 +652,131 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>5</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Week_13/appdg2/template_dataset.xlsx
+++ b/Week_13/appdg2/template_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\git_v3\HealthCare_project\Week_13\appdg2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4813790A-1352-486C-8547-FFB613AFCF42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98B7B9E-4F44-4CF5-A871-6CC561B58A3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1604963C-24BB-4587-B425-F02303289D06}"/>
+    <workbookView xWindow="8652" yWindow="2316" windowWidth="13860" windowHeight="8748" xr2:uid="{1604963C-24BB-4587-B425-F02303289D06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>Region</t>
   </si>
@@ -144,12 +144,6 @@
     <t>Count_Of_Risks</t>
   </si>
   <si>
-    <t>Not Hispanic</t>
-  </si>
-  <si>
-    <t>GENERAL PRACTITIONER</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -160,6 +154,9 @@
   </si>
   <si>
     <t>Risk_Smoking_Tobacco</t>
+  </si>
+  <si>
+    <t>West</t>
   </si>
 </sst>
 </file>
@@ -528,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D8C604-34EE-4C63-80B5-B10FD89684E1}">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,129 +650,129 @@
         <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="W2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AM2" s="2">
         <v>5</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
